--- a/inst/extdata/water_samples.xlsx
+++ b/inst/extdata/water_samples.xlsx
@@ -248,10 +248,10 @@
     <t xml:space="preserve">U</t>
   </si>
   <si>
-    <t xml:space="preserve">del_18O</t>
+    <t xml:space="preserve">delta_O_18</t>
   </si>
   <si>
-    <t xml:space="preserve">del_2H</t>
+    <t xml:space="preserve">delta_H_2</t>
   </si>
   <si>
     <t xml:space="preserve">Foot Print Childeren Home/School</t>
